--- a/index/index調査.xlsx
+++ b/index/index調査.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EADD81D-DF03-4C0F-B996-5BA61DEA3037}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA8B034-DBE6-4159-8E86-551CE37EC1F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B-TreeIndex" sheetId="1" r:id="rId1"/>
+    <sheet name="HashIndex" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="196">
   <si>
     <t>PostgreSQLでは、B-tree、Hash、GiST、SP-GiST、GIN、BRINといった複数の種類のインデックスを使用可能です。</t>
     <phoneticPr fontId="3"/>
@@ -187,26 +188,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>6)文字列でのIndex Scanも確認してみます</t>
-    <rPh sb="2" eb="5">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ALTER TABLE test ALTER COLUMN id TYPE text;</t>
-  </si>
-  <si>
     <t>psql -U postgres -p 5432 -d testdb -c "explain analyze select id from test where id = 5000;"</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>psql -U postgres -p 5432 -d testdb -c "explain analyze select id from test where id LIKE '1%';"</t>
-  </si>
-  <si>
     <t>--------------------------------------------------------------------------------------------------------------</t>
   </si>
   <si>
@@ -223,22 +208,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Execution Time: 188.010 ms</t>
-  </si>
-  <si>
-    <t>ANALYZE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Seq Scan on test  (cost=0.00..16925.00 rows=111111 width=6) (actual time=0.031..144.901 rows=111112 loops=1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Planning Time: 1.501 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Execution Time: 148.244 ms</t>
-  </si>
-  <si>
-    <t>psql -U postgres -p 5432 -d testdb -c "ANALYZE;"</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>7)IndexScanが使われていないので統計情報を更新しますが、状況は変わりませんでした。</t>
@@ -263,28 +232,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　前方一致検索については、IndexScanが効くとありますが、理由はよくわかりませんでした。</t>
-    <rPh sb="1" eb="3">
-      <t>ゼンポウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>psql -U postgres -p 5432 -d testdb -c "explain analyze select id from test where id &lt; '100';"</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                         QUERY PLAN                                                     </t>
   </si>
   <si>
@@ -359,16 +306,6 @@
     <t>(6 行)</t>
   </si>
   <si>
-    <t>　Cローケールじゃないと、IndexScanが有効に働かないことがあるそうです。</t>
-    <rPh sb="23" eb="25">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ハタラ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>9)文字列の前方一致検索でIndexScanが動作しないのは、ロケールが影響してそうです</t>
     <rPh sb="2" eb="5">
       <t>モジレツ</t>
@@ -426,14 +363,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>psql -U postgres -p 5432 -d testdb -c "CREATE INpsql -U postgres -p 5432 -d testdb -c "CREATE INDEX id_index ON test(id);"
-CREATE INDEXDEX id_index ON test USING HASH (id);"</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>psql -U postgres -p 5432 -d testdb -c "analyze;"</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Index Cond: ((id &gt;= '1'::text) AND (id &lt; '2'::text))</t>
   </si>
   <si>
@@ -468,10 +397,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Execution Time: 4.305 ms</t>
-  </si>
-  <si>
-    <t>psql -U postgres -p 5432 -d testdb -c "explain analyze select id from test where id LIKE '1%';"</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>12)取得行数が多いためexactモードのBitmapHeapScanになりました</t>
@@ -498,9 +423,6 @@
       <t>コウソクカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>psql -U postgres -p 5432 -d testdb -c "explain analyze select id from test where id LIKE '10000%';"</t>
   </si>
   <si>
     <t xml:space="preserve">                                                     QUERY PLAN</t>
@@ -573,37 +495,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>13)もうちょっと取得行を減らしてみます。上記の3分の1程度の問い合わせ時間になりました。</t>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>14)統計情報を元に問い合わせ計画を立てています。統計情報は以下のように取得可能。</t>
     <rPh sb="3" eb="5">
       <t>トウケイ</t>
@@ -747,6 +638,380 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Hashインデックスの動作確認</t>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ハッシュインデックスは単純な等価性比較のみを扱うことができます。 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>問い合わせプランナでは、インデックスの付いた列を=演算子を使用して比較する場合に、ハッシュインデックスの使用を検討します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>13)もうちょっと取得行を減らしたらIndexScanが使われました。上記の3分の1程度の問い合わせ時間になりました。</t>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "CREATE INDEX id_index ON test(id);"
+CREATE INDEXDEX id_index ON test (id);"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>create table if not exists test (id text);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into test(id) select i from generate_series(1, 1000000) as i; </t>
+  </si>
+  <si>
+    <t>6)文字列でのIndex Scanも確認してみます。テーブルを作り直します</t>
+    <rPh sb="2" eb="5">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7)indexをはります</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "explain analyze select id from test where id LIKE '1%';"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "explain analyze select id from test where id LIKE '100000%';"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                    QUERY PLAN</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gather  (cost=1000.00..10643.33 rows=100 width=6) (actual time=26.587..135.303 rows=2 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Workers Planned: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Workers Launched: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -&gt;  Parallel Seq Scan on test  (cost=0.00..9633.33 rows=42 width=6) (actual time=43.116..76.891 rows=1 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Filter: (id ~~ '100000%'::text)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Rows Removed by Filter: 333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planning Time: 1.617 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Execution Time: 135.331 ms</t>
+  </si>
+  <si>
+    <t>(8 行)</t>
+  </si>
+  <si>
+    <t>　前方一致検索については、IndexScanが効くとありますが、ロケールがCになっていないのが問題のようです。</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンポウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "explain analyze select id from test where id &lt; '100';"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　Cロケールじゃないと、IndexScanが有効に働かないことがあるそうです。</t>
+    <rPh sb="22" eb="24">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ハタラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "analyze;"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "explain analyze select id from test where id LIKE '10000%';"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                             QUERY PLAN</t>
+  </si>
+  <si>
+    <t>----------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seq Scan on test  (cost=0.00..1855.06 rows=565 width=4) (actual time=0.778..14.802 rows=1 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planning Time: 0.871 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Execution Time: 14.830 ms</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "CREATE INDEX id_index ON test USING HASH (id);"
+CREATE INDEXDEX id_index ON test USING HASH (id);"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "explain analyze select id from test where id = '1';"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Index Scan using id_index on test  (cost=0.00..8.02 rows=1 width=4) (actual time=0.047..0.048 rows=1 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Index Cond: (id = 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planning Time: 1.658 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Execution Time: 0.072 ms</t>
+  </si>
+  <si>
+    <t>4)等価演算子を条件に抽出。Indexscanが使われているのでHashindexが効いてるようです。</t>
+    <rPh sb="2" eb="4">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>エンザンシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "explain analyze select id from test where id &lt; '5000';"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                              QUERY PLAN</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seq Scan on test  (cost=0.00..1693.00 rows=5029 width=4) (actual time=0.026..9.311 rows=4999 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Filter: (id &lt; 5000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Rows Removed by Filter: 95001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planning Time: 1.427 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Execution Time: 9.531 ms</t>
+  </si>
+  <si>
+    <t>5)範囲検索だと全検索になります</t>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CREATE EXTENSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> itemoffset |   ctid    |   data</t>
+  </si>
+  <si>
+    <t>------------+-----------+-----------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          1 | (31,124)  |   9397257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          2 | (428,226) |  35215881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          3 | (225,18)  |  58238985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          4 | (6,76)    |  72229385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          5 | (375,191) | 107385353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          6 | (335,174) | 185241097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          7 | (324,131) | 203721737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          8 | (175,6)   | 216835081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          9 | (129,47)  | 223205897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         10 | (438,67)  | 235871241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         11 | (158,207) | 245452297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         12 | (46,4)    | 274486793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         13 | (42,16)   | 283864073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         14 | (327,90)  | 285910537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         15 | (48,179)  | 292869641</t>
+  </si>
+  <si>
+    <t>(15 行)</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "CREATE EXTENSION pageinspect;"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "SELECT * FROM hash_page_items(get_raw_page('id_index', 10)) LIMIT 15; -- 10番ブロックの中身を出力するSQL;"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6)pageinspectをインストールするとhashindexの中身が見れます。data列がhash値です。</t>
+    <rPh sb="33" eb="35">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※ほぼ右記のサイトを参考に確認しています[https://www.intellilink.co.jp/column/oss/2018/051400.aspx]</t>
+    <rPh sb="3" eb="5">
+      <t>ウキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Postgres10で改善され、他のインデックスと同様に利用が推奨されるようになったようです。</t>
+    <rPh sb="11" eb="13">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>スイショウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -846,15 +1111,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1135,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O157"/>
+  <dimension ref="B1:O162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1161,7 +1426,7 @@
   <sheetData>
     <row r="1" spans="2:2" s="2" customFormat="1" ht="28.5">
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -1216,7 +1481,7 @@
     </row>
     <row r="14" spans="2:2" s="3" customFormat="1">
       <c r="B14" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:2">
@@ -1274,9 +1539,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:2" s="3" customFormat="1" ht="93.75">
+    <row r="28" spans="2:2" s="3" customFormat="1">
       <c r="B28" s="5" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="2:2" s="3" customFormat="1">
@@ -1291,7 +1556,7 @@
     </row>
     <row r="32" spans="2:2" s="3" customFormat="1">
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="2:2" s="3" customFormat="1">
@@ -1381,563 +1646,937 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="1" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="2:2" s="3" customFormat="1">
       <c r="B53" s="3" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="2:2" s="3" customFormat="1">
       <c r="B54" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" s="3" customFormat="1">
+      <c r="B56" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" s="3" customFormat="1">
+      <c r="B57" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" s="6" customFormat="1"/>
+    <row r="59" spans="2:2" s="3" customFormat="1">
+      <c r="B59" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" s="3" customFormat="1">
+      <c r="B60" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" s="3" customFormat="1">
+      <c r="B61" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" s="3" customFormat="1">
+      <c r="B62" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" s="3" customFormat="1">
+      <c r="B63" s="3" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" s="3" customFormat="1">
+      <c r="B64" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" s="3" customFormat="1">
+      <c r="B65" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" s="3" customFormat="1">
+      <c r="B66" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" s="3" customFormat="1">
+      <c r="B67" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" s="3" customFormat="1">
+      <c r="B71" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" s="3" customFormat="1">
+      <c r="B72" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" s="3" customFormat="1">
+      <c r="B73" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" s="3" customFormat="1">
+      <c r="B74" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" s="3" customFormat="1">
+      <c r="B75" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" s="3" customFormat="1">
+      <c r="B76" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" s="3" customFormat="1">
+      <c r="B77" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" s="3" customFormat="1">
+      <c r="B78" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" s="3" customFormat="1">
+      <c r="B79" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" s="3" customFormat="1">
+      <c r="B80" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" s="3" customFormat="1">
+      <c r="B81" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" s="3" customFormat="1">
+      <c r="B82" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" s="3" customFormat="1">
+      <c r="B85" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" s="3" customFormat="1">
+      <c r="B86" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" s="3" customFormat="1">
+      <c r="B87" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" s="3" customFormat="1">
+      <c r="B88" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" s="3" customFormat="1">
+      <c r="B89" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" s="3" customFormat="1">
+      <c r="B90" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" s="3" customFormat="1">
+      <c r="B91" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" s="3" customFormat="1">
+      <c r="B92" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" s="3" customFormat="1">
+      <c r="B93" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" s="3" customFormat="1">
+      <c r="B97" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" s="3" customFormat="1">
+      <c r="B98" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" s="3" customFormat="1">
+      <c r="B99" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" s="3" customFormat="1">
+      <c r="B100" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" s="3" customFormat="1">
+      <c r="B101" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" s="3" customFormat="1">
+      <c r="B102" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" s="3" customFormat="1">
+      <c r="B103" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" s="3" customFormat="1">
+      <c r="B104" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" s="3" customFormat="1">
+      <c r="B105" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" s="3" customFormat="1">
+      <c r="B106" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" s="3" customFormat="1">
+      <c r="B109" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" s="3" customFormat="1">
+      <c r="B110" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" s="3" customFormat="1">
+      <c r="B111" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" s="3" customFormat="1">
+      <c r="B112" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" s="3" customFormat="1">
+      <c r="B113" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" s="3" customFormat="1">
+      <c r="B114" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" s="3" customFormat="1">
+      <c r="B115" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" s="3" customFormat="1">
+      <c r="B116" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" s="3" customFormat="1">
+      <c r="B117" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" s="3" customFormat="1">
+      <c r="B118" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" s="3" customFormat="1">
+      <c r="B119" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" s="3" customFormat="1">
+      <c r="B122" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" s="3" customFormat="1">
+      <c r="B123" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" s="3" customFormat="1">
+      <c r="B124" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" s="3" customFormat="1">
+      <c r="B125" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" s="3" customFormat="1">
+      <c r="B126" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" s="3" customFormat="1">
+      <c r="B130" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" s="3" customFormat="1">
+      <c r="B131" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" s="3" customFormat="1">
+      <c r="B132" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" s="3" customFormat="1">
+      <c r="B133" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" s="3" customFormat="1">
+      <c r="B134" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" s="3" customFormat="1">
+      <c r="B135" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" s="3" customFormat="1">
+      <c r="B136" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" s="3" customFormat="1">
+      <c r="B137" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" s="3" customFormat="1">
+      <c r="B138" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" s="3" customFormat="1">
+      <c r="B139" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" s="3" customFormat="1">
+      <c r="B140" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" s="3" customFormat="1">
+      <c r="B141" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" s="3" customFormat="1">
+      <c r="B144" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" s="3" customFormat="1">
+      <c r="B145" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" s="3" customFormat="1">
+      <c r="B146" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" s="3" customFormat="1">
+      <c r="B147" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" s="3" customFormat="1">
+      <c r="B148" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" s="3" customFormat="1">
+      <c r="B149" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="2:15" s="3" customFormat="1">
+      <c r="B150" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" s="3" customFormat="1">
+      <c r="B151" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15" s="3" customFormat="1">
+      <c r="B152" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="153" spans="2:15" s="3" customFormat="1">
+      <c r="B153" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="155" spans="2:15">
+      <c r="B155" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="156" spans="2:15">
+      <c r="B156" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15" s="3" customFormat="1">
+      <c r="B157" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" s="3" customFormat="1">
+      <c r="B158" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15" s="3" customFormat="1">
+      <c r="B159" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="160" spans="2:15" s="3" customFormat="1">
+      <c r="B160" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" s="3" customFormat="1">
+      <c r="B161" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0</v>
+      </c>
+      <c r="G161" s="3">
+        <v>5</v>
+      </c>
+      <c r="H161" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L161" s="3">
+        <v>0.82075465000000003</v>
+      </c>
+      <c r="M161" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="N161" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" s="3" customFormat="1">
+      <c r="B162" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110CBD3E-0821-4052-BD0D-2EAAD1F10525}">
+  <dimension ref="B1:B70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="47.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" s="2" customFormat="1" ht="28.5">
+      <c r="B1" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" s="3" customFormat="1">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" s="3" customFormat="1">
+      <c r="B10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" s="3" customFormat="1">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" s="3" customFormat="1">
+      <c r="B14" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" s="3" customFormat="1">
+      <c r="B15" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" s="3" customFormat="1">
+      <c r="B16" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" s="3" customFormat="1">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" s="3" customFormat="1">
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" s="3" customFormat="1">
+      <c r="B19" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" s="3" customFormat="1">
+      <c r="B20" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" s="3" customFormat="1">
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" s="3" customFormat="1">
+      <c r="B24" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" s="3" customFormat="1">
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" s="3" customFormat="1">
+      <c r="B28" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" s="3" customFormat="1">
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" s="3" customFormat="1">
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" s="3" customFormat="1">
+      <c r="B31" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" s="3" customFormat="1">
+      <c r="B32" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" s="3" customFormat="1">
+      <c r="B33" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" s="3" customFormat="1">
+      <c r="B34" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" s="3" customFormat="1">
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" s="3" customFormat="1">
+      <c r="B38" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" s="3" customFormat="1">
+      <c r="B39" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" s="3" customFormat="1">
+      <c r="B40" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" s="3" customFormat="1">
+      <c r="B41" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" s="3" customFormat="1">
+      <c r="B42" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" s="3" customFormat="1">
+      <c r="B43" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" s="3" customFormat="1">
+      <c r="B44" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" s="3" customFormat="1">
+      <c r="B45" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" s="3" customFormat="1">
+      <c r="B46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" s="3" customFormat="1">
+      <c r="B49" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" s="3" customFormat="1">
+      <c r="B50" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" s="3" customFormat="1"/>
+    <row r="52" spans="2:2" s="3" customFormat="1">
+      <c r="B52" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" s="3" customFormat="1">
+      <c r="B53" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" s="3" customFormat="1">
+      <c r="B54" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="2:2" s="3" customFormat="1">
       <c r="B55" s="3" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="2:2" s="3" customFormat="1">
       <c r="B56" s="3" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="2:2" s="3" customFormat="1">
       <c r="B57" s="3" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="2:2" s="3" customFormat="1">
       <c r="B58" s="3" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="2:2" s="3" customFormat="1">
       <c r="B59" s="3" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="2:2" s="3" customFormat="1">
       <c r="B60" s="3" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="2:2" s="3" customFormat="1">
       <c r="B61" s="3" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="2:2" s="3" customFormat="1">
       <c r="B62" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="1" t="s">
-        <v>54</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" s="3" customFormat="1">
+      <c r="B63" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" s="3" customFormat="1">
+      <c r="B64" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" s="3" customFormat="1">
+      <c r="B65" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="2:2" s="3" customFormat="1">
       <c r="B66" s="3" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="2:2" s="3" customFormat="1">
       <c r="B67" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" s="3" customFormat="1"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" s="3" customFormat="1">
+      <c r="B68" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
     <row r="69" spans="2:2" s="3" customFormat="1">
       <c r="B69" s="3" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="2:2" s="3" customFormat="1">
       <c r="B70" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" s="3" customFormat="1">
-      <c r="B71" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" s="3" customFormat="1">
-      <c r="B72" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" s="3" customFormat="1">
-      <c r="B73" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" s="3" customFormat="1">
-      <c r="B74" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" s="3" customFormat="1">
-      <c r="B75" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" s="3" customFormat="1">
-      <c r="B76" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" s="3" customFormat="1">
-      <c r="B77" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" s="3" customFormat="1">
-      <c r="B80" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" s="3" customFormat="1">
-      <c r="B81" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" s="3" customFormat="1">
-      <c r="B82" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" s="3" customFormat="1">
-      <c r="B83" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" s="3" customFormat="1">
-      <c r="B84" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" s="3" customFormat="1">
-      <c r="B85" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" s="3" customFormat="1">
-      <c r="B86" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" s="3" customFormat="1">
-      <c r="B87" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" s="3" customFormat="1">
-      <c r="B88" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" s="3" customFormat="1">
-      <c r="B92" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" s="3" customFormat="1">
-      <c r="B93" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" s="3" customFormat="1">
-      <c r="B94" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" s="3" customFormat="1">
-      <c r="B95" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" s="3" customFormat="1">
-      <c r="B96" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" s="3" customFormat="1">
-      <c r="B97" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" s="3" customFormat="1">
-      <c r="B98" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" s="3" customFormat="1">
-      <c r="B99" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" s="3" customFormat="1">
-      <c r="B100" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" s="3" customFormat="1">
-      <c r="B101" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" s="3" customFormat="1">
-      <c r="B104" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" s="3" customFormat="1">
-      <c r="B105" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" s="3" customFormat="1">
-      <c r="B106" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" s="3" customFormat="1">
-      <c r="B107" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" s="3" customFormat="1">
-      <c r="B108" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" s="3" customFormat="1">
-      <c r="B109" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" s="3" customFormat="1">
-      <c r="B110" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" s="3" customFormat="1">
-      <c r="B111" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" s="3" customFormat="1">
-      <c r="B112" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" s="3" customFormat="1">
-      <c r="B113" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" s="3" customFormat="1">
-      <c r="B114" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" s="3" customFormat="1">
-      <c r="B117" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" s="3" customFormat="1">
-      <c r="B118" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" s="3" customFormat="1">
-      <c r="B119" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" s="3" customFormat="1">
-      <c r="B120" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" s="3" customFormat="1">
-      <c r="B121" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" s="3" customFormat="1">
-      <c r="B125" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" s="3" customFormat="1">
-      <c r="B126" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" s="3" customFormat="1">
-      <c r="B127" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" s="3" customFormat="1">
-      <c r="B128" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" s="3" customFormat="1">
-      <c r="B129" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" s="3" customFormat="1">
-      <c r="B130" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" s="3" customFormat="1">
-      <c r="B131" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" s="3" customFormat="1">
-      <c r="B132" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" s="3" customFormat="1">
-      <c r="B133" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" s="3" customFormat="1">
-      <c r="B134" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" s="3" customFormat="1">
-      <c r="B135" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" s="3" customFormat="1">
-      <c r="B136" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" s="3" customFormat="1">
-      <c r="B139" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" s="3" customFormat="1">
-      <c r="B140" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" s="3" customFormat="1">
-      <c r="B141" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" s="3" customFormat="1">
-      <c r="B142" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" s="3" customFormat="1">
-      <c r="B143" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" s="3" customFormat="1">
-      <c r="B144" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="145" spans="2:15" s="3" customFormat="1">
-      <c r="B145" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="146" spans="2:15" s="3" customFormat="1">
-      <c r="B146" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="147" spans="2:15" s="3" customFormat="1">
-      <c r="B147" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="148" spans="2:15" s="3" customFormat="1">
-      <c r="B148" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="150" spans="2:15">
-      <c r="B150" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="151" spans="2:15">
-      <c r="B151" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="152" spans="2:15" s="3" customFormat="1">
-      <c r="B152" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="153" spans="2:15" s="3" customFormat="1">
-      <c r="B153" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="154" spans="2:15" s="3" customFormat="1">
-      <c r="B154" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K154" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L154" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="M154" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="N154" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O154" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="155" spans="2:15" s="3" customFormat="1">
-      <c r="B155" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="156" spans="2:15" s="3" customFormat="1">
-      <c r="B156" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F156" s="3">
-        <v>0</v>
-      </c>
-      <c r="G156" s="3">
-        <v>5</v>
-      </c>
-      <c r="H156" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="K156" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="L156" s="3">
-        <v>0.82075465000000003</v>
-      </c>
-      <c r="M156" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="N156" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="157" spans="2:15" s="3" customFormat="1">
-      <c r="B157" s="3" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/index/index調査.xlsx
+++ b/index/index調査.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA8B034-DBE6-4159-8E86-551CE37EC1F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3573276-D76C-48C8-9EB9-FCB4B48BEC6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B-TreeIndex" sheetId="1" r:id="rId1"/>
     <sheet name="HashIndex" sheetId="2" r:id="rId2"/>
+    <sheet name="BRINIndex" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="239">
   <si>
     <t>PostgreSQLでは、B-tree、Hash、GiST、SP-GiST、GIN、BRINといった複数の種類のインデックスを使用可能です。</t>
     <phoneticPr fontId="3"/>
@@ -1012,6 +1013,173 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BRINインデックスの動作確認</t>
+    <rPh sb="11" eb="13">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブルの連続的な物理ブロックの範囲に格納された値についての要約を格納します。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>create table if not exists test (id timestamp);</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>INSERT INTO test VALUES ( now() + (generate_series(1,1000000) * interval '1 second'));</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "explain analyze select id from test where id &lt; now()"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gather  (cost=1000.00..11685.00 rows=100 width=8) (actual time=2.372..163.326 rows=70 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -&gt;  Parallel Seq Scan on test  (cost=0.00..10675.00 rows=42 width=8) (actual time=47.411..98.866 rows=23 loops=3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Filter: (id &lt; now())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Rows Removed by Filter: 333310</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planning Time: 2.377 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Execution Time: 163.360 ms</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "CREATE INDEX id_index ON test USING BRIN (id)"</t>
+  </si>
+  <si>
+    <t>3)BRINインデックス作成</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                       QUERY PLAN                                                       </t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Heap Blocks: lossy=128</t>
+  </si>
+  <si>
+    <t>4)比較演算子を条件に抽出。Indexscanが使われているのでBRINindexが効いてるようです。</t>
+    <rPh sb="2" eb="4">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エンザン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bitmap Heap Scan on test  (cost=12.06..4865.62 rows=100 width=8) (actual time=0.164..7.004 rows=735 loops=1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Recheck Cond: (id &lt; now())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Rows Removed by Index Recheck: 28193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -&gt;  Bitmap Index Scan on id_index  (cost=0.00..12.03 rows=28571 width=0) (actual time=0.146..0.146 rows=1280 loops=1)         Index Cond: (id &lt; now())</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planning Time: 1.456 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Execution Time: 7.089 ms</t>
+  </si>
+  <si>
+    <t>サイズが小さく、ビッグデータに適したインデックスです。</t>
+    <rPh sb="4" eb="5">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "SELECT * FROM brin_page_items(get_raw_page('id_index', 2), 'id_index') LIMIT 15;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> itemoffset | blknum | attnum | allnulls | hasnulls | placeholder |                           value                     </t>
+  </si>
+  <si>
+    <t>------------+--------+--------+----------+----------+-------------+------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          1 |      0 |      1 | f        | f        | f           | {2022-02-09 22:17:08.616889 .. 2022-02-10 06:19:15.616889}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          2 |    128 |      1 | f        | f        | f           | {2022-02-10 06:19:16.616889 .. 2022-02-10 14:21:23.616889}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          3 |    256 |      1 | f        | f        | f           | {2022-02-10 14:21:24.616889 .. 2022-02-10 22:23:31.616889}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          4 |    384 |      1 | f        | f        | f           | {2022-02-10 22:23:32.616889 .. 2022-02-11 06:25:39.616889}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          5 |    512 |      1 | f        | f        | f           | {2022-02-11 06:25:40.616889 .. 2022-02-11 14:27:47.616889}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          6 |    640 |      1 | f        | f        | f           | {2022-02-11 14:27:48.616889 .. 2022-02-11 22:29:55.616889}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          7 |    768 |      1 | f        | f        | f           | {2022-02-11 22:29:56.616889 .. 2022-02-12 06:32:03.616889}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          8 |    896 |      1 | f        | f        | f           | {2022-02-12 06:32:04.616889 .. 2022-02-12 14:34:11.616889}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          9 |   1024 |      1 | f        | f        | f           | {2022-02-12 14:34:12.616889 .. 2022-02-12 22:36:19.616889}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         10 |   1152 |      1 | f        | f        | f           | {2022-02-12 22:36:20.616889 .. 2022-02-13 06:38:27.616889}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         11 |   1280 |      1 | f        | f        | f           | {2022-02-13 06:38:28.616889 .. 2022-02-13 14:40:35.616889}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         12 |   1408 |      1 | f        | f        | f           | {2022-02-13 14:40:36.616889 .. 2022-02-13 22:42:43.616889}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         13 |   1536 |      1 | f        | f        | f           | {2022-02-13 22:42:44.616889 .. 2022-02-14 06:44:51.616889}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         14 |   1664 |      1 | f        | f        | f           | {2022-02-14 06:44:52.616889 .. 2022-02-14 14:46:59.616889}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         15 |   1792 |      1 | f        | f        | f           | {2022-02-14 14:47:00.616889 .. 2022-02-14 22:49:07.616889}</t>
+  </si>
+  <si>
+    <t>5)Indexの格納状況を確認</t>
+    <rPh sb="8" eb="10">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2241,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{110CBD3E-0821-4052-BD0D-2EAAD1F10525}">
   <dimension ref="B1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2584,4 +2752,307 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C75E44-744C-4EE7-8203-F83EDCC5621E}">
+  <dimension ref="B1:B59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="47.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" s="2" customFormat="1" ht="28.5">
+      <c r="B1" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" s="3" customFormat="1">
+      <c r="B6" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" s="3" customFormat="1">
+      <c r="B7" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" s="3" customFormat="1">
+      <c r="B10" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" s="3" customFormat="1">
+      <c r="B11" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" s="3" customFormat="1">
+      <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" s="3" customFormat="1">
+      <c r="B13" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" s="3" customFormat="1">
+      <c r="B14" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" s="3" customFormat="1">
+      <c r="B15" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" s="3" customFormat="1">
+      <c r="B16" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" s="3" customFormat="1">
+      <c r="B17" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" s="3" customFormat="1">
+      <c r="B18" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" s="3" customFormat="1">
+      <c r="B19" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" s="3" customFormat="1">
+      <c r="B20" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" s="3" customFormat="1">
+      <c r="B21" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" s="3" customFormat="1">
+      <c r="B24" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" s="3" customFormat="1">
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" s="3" customFormat="1">
+      <c r="B28" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" s="3" customFormat="1">
+      <c r="B29" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" s="3" customFormat="1">
+      <c r="B30" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" s="3" customFormat="1">
+      <c r="B31" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" s="3" customFormat="1">
+      <c r="B32" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" s="3" customFormat="1">
+      <c r="B33" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" s="3" customFormat="1">
+      <c r="B34" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" s="3" customFormat="1">
+      <c r="B35" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" s="3" customFormat="1">
+      <c r="B36" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" s="3" customFormat="1">
+      <c r="B37" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" s="3" customFormat="1">
+      <c r="B38" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" s="3" customFormat="1">
+      <c r="B41" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" s="3" customFormat="1">
+      <c r="B42" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" s="3" customFormat="1">
+      <c r="B43" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" s="3" customFormat="1">
+      <c r="B44" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" s="3" customFormat="1">
+      <c r="B45" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" s="3" customFormat="1">
+      <c r="B46" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" s="3" customFormat="1">
+      <c r="B47" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" s="3" customFormat="1">
+      <c r="B48" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" s="3" customFormat="1">
+      <c r="B49" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" s="3" customFormat="1">
+      <c r="B50" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" s="3" customFormat="1">
+      <c r="B51" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" s="3" customFormat="1">
+      <c r="B52" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" s="3" customFormat="1">
+      <c r="B53" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" s="3" customFormat="1">
+      <c r="B54" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" s="3" customFormat="1">
+      <c r="B55" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" s="3" customFormat="1">
+      <c r="B56" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" s="3" customFormat="1">
+      <c r="B57" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" s="3" customFormat="1">
+      <c r="B58" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" s="3" customFormat="1">
+      <c r="B59" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>